--- a/BMH_Veggidata.xlsx
+++ b/BMH_Veggidata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gartens1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -550,6 +550,15 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,31 +844,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA83"/>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W84" sqref="W84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="6.90625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" style="17" customWidth="1"/>
-    <col min="10" max="11" width="6.90625" style="34" customWidth="1"/>
-    <col min="12" max="12" width="6.90625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.90625" style="34" customWidth="1"/>
-    <col min="14" max="14" width="6.90625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.90625" style="34" customWidth="1"/>
-    <col min="16" max="16" width="6.90625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.90625" style="34" customWidth="1"/>
-    <col min="18" max="22" width="6.90625" style="2" customWidth="1"/>
-    <col min="23" max="27" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="6.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="17" customWidth="1"/>
+    <col min="10" max="11" width="6.85546875" style="34" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="34" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="34" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="34" hidden="1" customWidth="1"/>
+    <col min="18" max="21" width="6.85546875" style="2" customWidth="1"/>
+    <col min="22" max="26" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="22" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" s="22" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -899,7 +908,7 @@
       <c r="M1" s="35">
         <v>44215</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="39">
         <v>44222</v>
       </c>
       <c r="O1" s="37">
@@ -915,24 +924,21 @@
         <v>44250</v>
       </c>
       <c r="S1" s="19">
-        <v>44257</v>
+        <v>44264</v>
       </c>
       <c r="T1" s="19">
-        <v>44264</v>
+        <v>44271</v>
       </c>
       <c r="U1" s="19">
-        <v>44271</v>
-      </c>
-      <c r="V1" s="19">
         <v>44278</v>
       </c>
+      <c r="V1" s="21"/>
       <c r="W1" s="21"/>
       <c r="X1" s="21"/>
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-    </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -954,17 +960,20 @@
       <c r="K2" s="32"/>
       <c r="L2" s="6"/>
       <c r="M2" s="36"/>
-      <c r="N2" s="9"/>
+      <c r="N2" s="40">
+        <v>862</v>
+      </c>
       <c r="O2" s="38"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="38"/>
-      <c r="R2" s="9"/>
+      <c r="R2" s="9">
+        <v>1503</v>
+      </c>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-    </row>
-    <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -988,7 +997,7 @@
         <v>932</v>
       </c>
       <c r="M3" s="36"/>
-      <c r="N3" s="9"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="38"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="38"/>
@@ -996,9 +1005,8 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-    </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1016,17 +1024,20 @@
       <c r="K4" s="32"/>
       <c r="L4" s="6"/>
       <c r="M4" s="36"/>
-      <c r="N4" s="9"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="38"/>
-      <c r="P4" s="9"/>
+      <c r="P4" s="9">
+        <v>735</v>
+      </c>
       <c r="Q4" s="38"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="S4" s="9">
+        <v>737</v>
+      </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1044,17 +1055,18 @@
       <c r="K5" s="32"/>
       <c r="L5" s="6"/>
       <c r="M5" s="36"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="38"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="38"/>
-      <c r="R5" s="9"/>
+      <c r="R5" s="9">
+        <v>434</v>
+      </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1086,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="6"/>
       <c r="M6" s="36"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="38"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="38"/>
@@ -1082,9 +1094,8 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1108,17 +1119,18 @@
         <v>416</v>
       </c>
       <c r="M7" s="36"/>
-      <c r="N7" s="9"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="38"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="9">
+        <v>412</v>
+      </c>
       <c r="Q7" s="38"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1138,17 +1150,20 @@
       <c r="K8" s="32"/>
       <c r="L8" s="7"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="10"/>
+      <c r="N8" s="41">
+        <v>679</v>
+      </c>
       <c r="O8" s="38"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="S8" s="10">
+        <v>398</v>
+      </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-    </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>89</v>
       </c>
@@ -1168,7 +1183,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="6"/>
       <c r="M9" s="36"/>
-      <c r="N9" s="9"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="38"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="38"/>
@@ -1176,9 +1191,8 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>89</v>
       </c>
@@ -1198,17 +1212,22 @@
       <c r="K10" s="32"/>
       <c r="L10" s="6"/>
       <c r="M10" s="36"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="40">
+        <v>1174</v>
+      </c>
       <c r="O10" s="38"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="38"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
+      <c r="R10" s="9">
+        <v>1078</v>
+      </c>
+      <c r="S10" s="9">
+        <v>818</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>89</v>
       </c>
@@ -1236,17 +1255,18 @@
         <v>1033</v>
       </c>
       <c r="M11" s="36"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="38"/>
-      <c r="P11" s="9"/>
+      <c r="P11" s="9">
+        <v>874</v>
+      </c>
       <c r="Q11" s="38"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>89</v>
       </c>
@@ -1268,7 +1288,9 @@
       <c r="K12" s="32"/>
       <c r="L12" s="6"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="40">
+        <v>841</v>
+      </c>
       <c r="O12" s="38"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="38"/>
@@ -1276,9 +1298,8 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1300,17 +1321,20 @@
       <c r="K13" s="32"/>
       <c r="L13" s="7"/>
       <c r="M13" s="36"/>
-      <c r="N13" s="10"/>
+      <c r="N13" s="41">
+        <v>608</v>
+      </c>
       <c r="O13" s="38"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
+      <c r="S13" s="10">
+        <v>373</v>
+      </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1340,17 +1364,24 @@
         <v>952</v>
       </c>
       <c r="M14" s="36"/>
-      <c r="N14" s="10"/>
+      <c r="N14" s="41">
+        <v>358</v>
+      </c>
       <c r="O14" s="38"/>
-      <c r="P14" s="10"/>
+      <c r="P14" s="10">
+        <v>1066</v>
+      </c>
       <c r="Q14" s="38"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="R14" s="10">
+        <v>1212</v>
+      </c>
+      <c r="S14" s="10">
+        <v>682</v>
+      </c>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
@@ -1368,17 +1399,20 @@
       <c r="K15" s="32"/>
       <c r="L15" s="7"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="41">
+        <v>584</v>
+      </c>
       <c r="O15" s="38"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="S15" s="10">
+        <v>654</v>
+      </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1430,9 @@
       <c r="K16" s="32"/>
       <c r="L16" s="7"/>
       <c r="M16" s="36"/>
-      <c r="N16" s="10"/>
+      <c r="N16" s="41">
+        <v>1437</v>
+      </c>
       <c r="O16" s="38"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="38"/>
@@ -1404,9 +1440,8 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1459,7 @@
       <c r="K17" s="32"/>
       <c r="L17" s="7"/>
       <c r="M17" s="36"/>
-      <c r="N17" s="10"/>
+      <c r="N17" s="41"/>
       <c r="O17" s="38"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="38"/>
@@ -1432,9 +1467,8 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
@@ -1456,17 +1490,20 @@
       <c r="K18" s="32"/>
       <c r="L18" s="7"/>
       <c r="M18" s="36"/>
-      <c r="N18" s="10"/>
+      <c r="N18" s="41">
+        <v>814</v>
+      </c>
       <c r="O18" s="38"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="38"/>
-      <c r="R18" s="10"/>
+      <c r="R18" s="10">
+        <v>963</v>
+      </c>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
@@ -1492,17 +1529,18 @@
       <c r="K19" s="32"/>
       <c r="L19" s="7"/>
       <c r="M19" s="36"/>
-      <c r="N19" s="10"/>
+      <c r="N19" s="41"/>
       <c r="O19" s="38"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="38"/>
-      <c r="R19" s="10"/>
+      <c r="R19" s="10">
+        <v>146</v>
+      </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -1522,17 +1560,18 @@
       <c r="K20" s="32"/>
       <c r="L20" s="7"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="10"/>
+      <c r="N20" s="41"/>
       <c r="O20" s="38"/>
-      <c r="P20" s="10"/>
+      <c r="P20" s="10">
+        <v>588</v>
+      </c>
       <c r="Q20" s="38"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
@@ -1554,17 +1593,18 @@
         <v>689</v>
       </c>
       <c r="M21" s="36"/>
-      <c r="N21" s="10"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="38"/>
-      <c r="P21" s="10"/>
+      <c r="P21" s="10">
+        <v>550</v>
+      </c>
       <c r="Q21" s="38"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -1584,17 +1624,18 @@
       <c r="K22" s="32"/>
       <c r="L22" s="7"/>
       <c r="M22" s="36"/>
-      <c r="N22" s="10"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="38"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="38"/>
-      <c r="R22" s="10"/>
+      <c r="R22" s="10">
+        <v>956</v>
+      </c>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-    </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1655,7 @@
       <c r="K23" s="32"/>
       <c r="L23" s="6"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="9"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="38"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="38"/>
@@ -1622,9 +1663,8 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-    </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1682,7 @@
       <c r="K24" s="32"/>
       <c r="L24" s="6"/>
       <c r="M24" s="36"/>
-      <c r="N24" s="9"/>
+      <c r="N24" s="40"/>
       <c r="O24" s="38"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="38"/>
@@ -1650,9 +1690,8 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-    </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -1678,7 +1717,7 @@
         <v>1277</v>
       </c>
       <c r="M25" s="36"/>
-      <c r="N25" s="9"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="38"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="38"/>
@@ -1686,9 +1725,8 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-    </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -1710,7 +1748,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="6"/>
       <c r="M26" s="36"/>
-      <c r="N26" s="9"/>
+      <c r="N26" s="40"/>
       <c r="O26" s="38"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="38"/>
@@ -1718,9 +1756,8 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-    </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -1738,7 +1775,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="6"/>
       <c r="M27" s="36"/>
-      <c r="N27" s="9"/>
+      <c r="N27" s="40"/>
       <c r="O27" s="38"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="38"/>
@@ -1746,9 +1783,8 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>12</v>
       </c>
@@ -1768,7 +1804,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="7"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="38"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="38"/>
@@ -1776,9 +1812,8 @@
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>12</v>
       </c>
@@ -1796,7 +1831,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="7"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="10"/>
+      <c r="N29" s="41"/>
       <c r="O29" s="38"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="38"/>
@@ -1804,9 +1839,8 @@
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-    </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -1824,7 +1858,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="6"/>
       <c r="M30" s="36"/>
-      <c r="N30" s="9"/>
+      <c r="N30" s="40"/>
       <c r="O30" s="38"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="38"/>
@@ -1832,9 +1866,8 @@
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-    </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -1854,7 +1887,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="6"/>
       <c r="M31" s="36"/>
-      <c r="N31" s="9"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="38"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="38"/>
@@ -1862,9 +1895,8 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>21</v>
       </c>
@@ -1882,7 +1914,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="7"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="10"/>
+      <c r="N32" s="41"/>
       <c r="O32" s="38"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="38"/>
@@ -1890,9 +1922,8 @@
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-    </row>
-    <row r="33" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>7</v>
       </c>
@@ -1912,7 +1943,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="6"/>
       <c r="M33" s="36"/>
-      <c r="N33" s="9"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="38"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="38"/>
@@ -1920,9 +1951,8 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-    </row>
-    <row r="34" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -1940,7 +1970,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="7"/>
       <c r="M34" s="36"/>
-      <c r="N34" s="10"/>
+      <c r="N34" s="41"/>
       <c r="O34" s="38"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="38"/>
@@ -1948,9 +1978,8 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-    </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>55</v>
       </c>
@@ -1968,7 +1997,7 @@
       <c r="K35" s="32"/>
       <c r="L35" s="6"/>
       <c r="M35" s="36"/>
-      <c r="N35" s="9"/>
+      <c r="N35" s="40"/>
       <c r="O35" s="38"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="38"/>
@@ -1976,9 +2005,8 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>55</v>
       </c>
@@ -1998,17 +2026,20 @@
       <c r="K36" s="32"/>
       <c r="L36" s="6"/>
       <c r="M36" s="36"/>
-      <c r="N36" s="9"/>
+      <c r="N36" s="40">
+        <v>786</v>
+      </c>
       <c r="O36" s="38"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="38"/>
-      <c r="R36" s="9"/>
+      <c r="R36" s="9">
+        <v>929</v>
+      </c>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-    </row>
-    <row r="37" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>57</v>
       </c>
@@ -2030,7 +2061,7 @@
       <c r="K37" s="32"/>
       <c r="L37" s="7"/>
       <c r="M37" s="36"/>
-      <c r="N37" s="10"/>
+      <c r="N37" s="41"/>
       <c r="O37" s="38"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="38"/>
@@ -2038,9 +2069,8 @@
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-    </row>
-    <row r="38" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>58</v>
       </c>
@@ -2062,17 +2092,20 @@
         <v>746</v>
       </c>
       <c r="M38" s="36"/>
-      <c r="N38" s="9"/>
+      <c r="N38" s="40"/>
       <c r="O38" s="38"/>
-      <c r="P38" s="9"/>
+      <c r="P38" s="9">
+        <v>941</v>
+      </c>
       <c r="Q38" s="38"/>
-      <c r="R38" s="9"/>
+      <c r="R38" s="9">
+        <v>488</v>
+      </c>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-    </row>
-    <row r="39" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>71</v>
       </c>
@@ -2090,7 +2123,7 @@
       <c r="K39" s="32"/>
       <c r="L39" s="7"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="10"/>
+      <c r="N39" s="41"/>
       <c r="O39" s="38"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="38"/>
@@ -2098,9 +2131,8 @@
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-    </row>
-    <row r="40" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>66</v>
       </c>
@@ -2118,7 +2150,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="6"/>
       <c r="M40" s="36"/>
-      <c r="N40" s="9"/>
+      <c r="N40" s="40"/>
       <c r="O40" s="38"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="38"/>
@@ -2126,9 +2158,8 @@
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-    </row>
-    <row r="41" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>66</v>
       </c>
@@ -2146,7 +2177,7 @@
       <c r="K41" s="32"/>
       <c r="L41" s="6"/>
       <c r="M41" s="36"/>
-      <c r="N41" s="9"/>
+      <c r="N41" s="40"/>
       <c r="O41" s="38"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="38"/>
@@ -2154,9 +2185,8 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-    </row>
-    <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>69</v>
       </c>
@@ -2174,7 +2204,7 @@
       <c r="K42" s="32"/>
       <c r="L42" s="6"/>
       <c r="M42" s="36"/>
-      <c r="N42" s="9"/>
+      <c r="N42" s="40"/>
       <c r="O42" s="38"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="38"/>
@@ -2182,9 +2212,8 @@
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-    </row>
-    <row r="43" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>74</v>
       </c>
@@ -2202,7 +2231,7 @@
       <c r="K43" s="32"/>
       <c r="L43" s="7"/>
       <c r="M43" s="36"/>
-      <c r="N43" s="10"/>
+      <c r="N43" s="41"/>
       <c r="O43" s="38"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="38"/>
@@ -2210,9 +2239,8 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-    </row>
-    <row r="44" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>74</v>
       </c>
@@ -2230,7 +2258,7 @@
       <c r="K44" s="32"/>
       <c r="L44" s="7"/>
       <c r="M44" s="36"/>
-      <c r="N44" s="10"/>
+      <c r="N44" s="41"/>
       <c r="O44" s="38"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="38"/>
@@ -2238,9 +2266,8 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-    </row>
-    <row r="45" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>74</v>
       </c>
@@ -2258,7 +2285,7 @@
       <c r="K45" s="32"/>
       <c r="L45" s="7"/>
       <c r="M45" s="36"/>
-      <c r="N45" s="10"/>
+      <c r="N45" s="41"/>
       <c r="O45" s="38"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="38"/>
@@ -2266,9 +2293,8 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-    </row>
-    <row r="46" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>82</v>
       </c>
@@ -2288,7 +2314,7 @@
       <c r="K46" s="32"/>
       <c r="L46" s="6"/>
       <c r="M46" s="36"/>
-      <c r="N46" s="9"/>
+      <c r="N46" s="40"/>
       <c r="O46" s="38"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="38"/>
@@ -2296,9 +2322,8 @@
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-    </row>
-    <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>82</v>
       </c>
@@ -2318,7 +2343,7 @@
       <c r="K47" s="32"/>
       <c r="L47" s="6"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="9"/>
+      <c r="N47" s="40"/>
       <c r="O47" s="38"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="38"/>
@@ -2326,9 +2351,8 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-    </row>
-    <row r="48" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>82</v>
       </c>
@@ -2348,17 +2372,18 @@
       <c r="K48" s="32"/>
       <c r="L48" s="6"/>
       <c r="M48" s="36"/>
-      <c r="N48" s="9"/>
+      <c r="N48" s="40"/>
       <c r="O48" s="38"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="38"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
+      <c r="S48" s="9">
+        <v>273</v>
+      </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-    </row>
-    <row r="49" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>82</v>
       </c>
@@ -2378,7 +2403,7 @@
       <c r="K49" s="32"/>
       <c r="L49" s="6"/>
       <c r="M49" s="36"/>
-      <c r="N49" s="9"/>
+      <c r="N49" s="40"/>
       <c r="O49" s="38"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="38"/>
@@ -2386,9 +2411,8 @@
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>9</v>
       </c>
@@ -2408,17 +2432,18 @@
       <c r="K50" s="32"/>
       <c r="L50" s="7"/>
       <c r="M50" s="36"/>
-      <c r="N50" s="10"/>
+      <c r="N50" s="41"/>
       <c r="O50" s="38"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="38"/>
-      <c r="R50" s="10"/>
+      <c r="R50" s="10">
+        <v>220</v>
+      </c>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>9</v>
       </c>
@@ -2438,7 +2463,7 @@
       <c r="K51" s="32"/>
       <c r="L51" s="7"/>
       <c r="M51" s="36"/>
-      <c r="N51" s="10"/>
+      <c r="N51" s="41"/>
       <c r="O51" s="38"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="38"/>
@@ -2446,9 +2471,8 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +2492,7 @@
       <c r="K52" s="32"/>
       <c r="L52" s="7"/>
       <c r="M52" s="36"/>
-      <c r="N52" s="10"/>
+      <c r="N52" s="41"/>
       <c r="O52" s="38"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="38"/>
@@ -2476,9 +2500,8 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>9</v>
       </c>
@@ -2496,7 +2519,7 @@
       <c r="K53" s="32"/>
       <c r="L53" s="7"/>
       <c r="M53" s="36"/>
-      <c r="N53" s="10"/>
+      <c r="N53" s="41"/>
       <c r="O53" s="38"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="38"/>
@@ -2504,9 +2527,8 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>9</v>
       </c>
@@ -2524,7 +2546,7 @@
       <c r="K54" s="32"/>
       <c r="L54" s="7"/>
       <c r="M54" s="36"/>
-      <c r="N54" s="10"/>
+      <c r="N54" s="41"/>
       <c r="O54" s="38"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="38"/>
@@ -2532,9 +2554,8 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>9</v>
       </c>
@@ -2552,7 +2573,7 @@
       <c r="K55" s="32"/>
       <c r="L55" s="7"/>
       <c r="M55" s="36"/>
-      <c r="N55" s="10"/>
+      <c r="N55" s="41"/>
       <c r="O55" s="38"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="38"/>
@@ -2560,9 +2581,8 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>9</v>
       </c>
@@ -2580,7 +2600,7 @@
       <c r="K56" s="32"/>
       <c r="L56" s="7"/>
       <c r="M56" s="36"/>
-      <c r="N56" s="10"/>
+      <c r="N56" s="41"/>
       <c r="O56" s="38"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="38"/>
@@ -2588,9 +2608,8 @@
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>9</v>
       </c>
@@ -2618,17 +2637,20 @@
         <v>206</v>
       </c>
       <c r="M57" s="36"/>
-      <c r="N57" s="10"/>
+      <c r="N57" s="41">
+        <v>227</v>
+      </c>
       <c r="O57" s="38"/>
-      <c r="P57" s="10"/>
+      <c r="P57" s="10">
+        <v>637</v>
+      </c>
       <c r="Q57" s="38"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>9</v>
       </c>
@@ -2646,7 +2668,7 @@
       <c r="K58" s="32"/>
       <c r="L58" s="7"/>
       <c r="M58" s="36"/>
-      <c r="N58" s="10"/>
+      <c r="N58" s="41"/>
       <c r="O58" s="38"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="38"/>
@@ -2654,9 +2676,8 @@
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>9</v>
       </c>
@@ -2686,7 +2707,9 @@
         <v>154</v>
       </c>
       <c r="M59" s="36"/>
-      <c r="N59" s="10"/>
+      <c r="N59" s="41">
+        <v>142</v>
+      </c>
       <c r="O59" s="38"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="38"/>
@@ -2694,9 +2717,8 @@
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>9</v>
       </c>
@@ -2714,17 +2736,18 @@
       <c r="K60" s="32"/>
       <c r="L60" s="7"/>
       <c r="M60" s="36"/>
-      <c r="N60" s="10"/>
+      <c r="N60" s="41"/>
       <c r="O60" s="38"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="38"/>
       <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
+      <c r="S60" s="10">
+        <v>279</v>
+      </c>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>9</v>
       </c>
@@ -2742,7 +2765,7 @@
       <c r="K61" s="32"/>
       <c r="L61" s="7"/>
       <c r="M61" s="36"/>
-      <c r="N61" s="10"/>
+      <c r="N61" s="41"/>
       <c r="O61" s="38"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="38"/>
@@ -2750,9 +2773,8 @@
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>9</v>
       </c>
@@ -2780,17 +2802,22 @@
         <v>1020</v>
       </c>
       <c r="M62" s="36"/>
-      <c r="N62" s="10"/>
+      <c r="N62" s="41">
+        <v>824</v>
+      </c>
       <c r="O62" s="38"/>
-      <c r="P62" s="10"/>
+      <c r="P62" s="10">
+        <v>803</v>
+      </c>
       <c r="Q62" s="38"/>
-      <c r="R62" s="10"/>
+      <c r="R62" s="10">
+        <v>632</v>
+      </c>
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>9</v>
       </c>
@@ -2810,7 +2837,7 @@
       <c r="K63" s="32"/>
       <c r="L63" s="7"/>
       <c r="M63" s="36"/>
-      <c r="N63" s="10"/>
+      <c r="N63" s="41"/>
       <c r="O63" s="38"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="38"/>
@@ -2818,9 +2845,8 @@
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>9</v>
       </c>
@@ -2840,17 +2866,18 @@
       <c r="K64" s="32"/>
       <c r="L64" s="7"/>
       <c r="M64" s="36"/>
-      <c r="N64" s="10"/>
+      <c r="N64" s="41"/>
       <c r="O64" s="38"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="38"/>
       <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
+      <c r="S64" s="10">
+        <v>357</v>
+      </c>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
@@ -2868,7 +2895,7 @@
       <c r="K65" s="32"/>
       <c r="L65" s="7"/>
       <c r="M65" s="36"/>
-      <c r="N65" s="10"/>
+      <c r="N65" s="41"/>
       <c r="O65" s="38"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="38"/>
@@ -2876,9 +2903,8 @@
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
       <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>9</v>
       </c>
@@ -2896,17 +2922,18 @@
       <c r="K66" s="32"/>
       <c r="L66" s="7"/>
       <c r="M66" s="36"/>
-      <c r="N66" s="10"/>
+      <c r="N66" s="41"/>
       <c r="O66" s="38"/>
-      <c r="P66" s="10"/>
+      <c r="P66" s="10">
+        <v>138</v>
+      </c>
       <c r="Q66" s="38"/>
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
       <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-    </row>
-    <row r="67" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>30</v>
       </c>
@@ -2924,7 +2951,7 @@
       <c r="K67" s="32"/>
       <c r="L67" s="6"/>
       <c r="M67" s="36"/>
-      <c r="N67" s="9"/>
+      <c r="N67" s="40"/>
       <c r="O67" s="38"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="38"/>
@@ -2932,9 +2959,8 @@
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-    </row>
-    <row r="68" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -2952,7 +2978,7 @@
       <c r="K68" s="32"/>
       <c r="L68" s="6"/>
       <c r="M68" s="36"/>
-      <c r="N68" s="9"/>
+      <c r="N68" s="40"/>
       <c r="O68" s="38"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="38"/>
@@ -2960,9 +2986,8 @@
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-    </row>
-    <row r="69" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -2982,7 +3007,7 @@
       <c r="K69" s="32"/>
       <c r="L69" s="6"/>
       <c r="M69" s="36"/>
-      <c r="N69" s="9"/>
+      <c r="N69" s="40"/>
       <c r="O69" s="38"/>
       <c r="P69" s="9"/>
       <c r="Q69" s="38"/>
@@ -2990,9 +3015,8 @@
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-    </row>
-    <row r="70" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>30</v>
       </c>
@@ -3014,7 +3038,7 @@
       <c r="K70" s="32"/>
       <c r="L70" s="6"/>
       <c r="M70" s="36"/>
-      <c r="N70" s="9"/>
+      <c r="N70" s="40"/>
       <c r="O70" s="38"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="38"/>
@@ -3022,9 +3046,8 @@
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-    </row>
-    <row r="71" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>30</v>
       </c>
@@ -3042,7 +3065,7 @@
       <c r="K71" s="32"/>
       <c r="L71" s="6"/>
       <c r="M71" s="36"/>
-      <c r="N71" s="9"/>
+      <c r="N71" s="40"/>
       <c r="O71" s="38"/>
       <c r="P71" s="9"/>
       <c r="Q71" s="38"/>
@@ -3050,9 +3073,8 @@
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-    </row>
-    <row r="72" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>30</v>
       </c>
@@ -3070,7 +3092,7 @@
       <c r="K72" s="32"/>
       <c r="L72" s="6"/>
       <c r="M72" s="36"/>
-      <c r="N72" s="9"/>
+      <c r="N72" s="40"/>
       <c r="O72" s="38"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="38"/>
@@ -3078,9 +3100,8 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-    </row>
-    <row r="73" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>30</v>
       </c>
@@ -3098,7 +3119,7 @@
       <c r="K73" s="32"/>
       <c r="L73" s="6"/>
       <c r="M73" s="36"/>
-      <c r="N73" s="9"/>
+      <c r="N73" s="40"/>
       <c r="O73" s="38"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="38"/>
@@ -3106,9 +3127,8 @@
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-    </row>
-    <row r="74" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>30</v>
       </c>
@@ -3126,7 +3146,7 @@
       <c r="K74" s="32"/>
       <c r="L74" s="6"/>
       <c r="M74" s="36"/>
-      <c r="N74" s="9"/>
+      <c r="N74" s="40"/>
       <c r="O74" s="38"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="38"/>
@@ -3134,9 +3154,8 @@
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-    </row>
-    <row r="75" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>30</v>
       </c>
@@ -3154,7 +3173,7 @@
       <c r="K75" s="32"/>
       <c r="L75" s="6"/>
       <c r="M75" s="36"/>
-      <c r="N75" s="9"/>
+      <c r="N75" s="40"/>
       <c r="O75" s="38"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="38"/>
@@ -3162,9 +3181,8 @@
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-    </row>
-    <row r="76" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>30</v>
       </c>
@@ -3182,7 +3200,7 @@
       <c r="K76" s="32"/>
       <c r="L76" s="6"/>
       <c r="M76" s="36"/>
-      <c r="N76" s="9"/>
+      <c r="N76" s="40"/>
       <c r="O76" s="38"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="38"/>
@@ -3190,9 +3208,8 @@
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-    </row>
-    <row r="77" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>30</v>
       </c>
@@ -3210,7 +3227,7 @@
       <c r="K77" s="32"/>
       <c r="L77" s="6"/>
       <c r="M77" s="36"/>
-      <c r="N77" s="9"/>
+      <c r="N77" s="40"/>
       <c r="O77" s="38"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="38"/>
@@ -3218,9 +3235,8 @@
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-    </row>
-    <row r="78" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>90</v>
       </c>
@@ -3240,7 +3256,7 @@
         <v>529</v>
       </c>
       <c r="M78" s="36"/>
-      <c r="N78" s="10"/>
+      <c r="N78" s="41"/>
       <c r="O78" s="38"/>
       <c r="P78" s="10"/>
       <c r="Q78" s="38"/>
@@ -3248,9 +3264,8 @@
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
       <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
-    </row>
-    <row r="79" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>90</v>
       </c>
@@ -3270,17 +3285,20 @@
       <c r="K79" s="32"/>
       <c r="L79" s="7"/>
       <c r="M79" s="36"/>
-      <c r="N79" s="10"/>
+      <c r="N79" s="41"/>
       <c r="O79" s="38"/>
-      <c r="P79" s="10"/>
+      <c r="P79" s="10">
+        <v>485</v>
+      </c>
       <c r="Q79" s="38"/>
-      <c r="R79" s="10"/>
+      <c r="R79" s="10">
+        <v>433</v>
+      </c>
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-    </row>
-    <row r="80" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>90</v>
       </c>
@@ -3298,7 +3316,7 @@
       <c r="K80" s="32"/>
       <c r="L80" s="7"/>
       <c r="M80" s="36"/>
-      <c r="N80" s="10"/>
+      <c r="N80" s="41"/>
       <c r="O80" s="38"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="38"/>
@@ -3306,9 +3324,8 @@
       <c r="S80" s="10"/>
       <c r="T80" s="10"/>
       <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-    </row>
-    <row r="81" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>94</v>
       </c>
@@ -3328,7 +3345,7 @@
       <c r="K81" s="25"/>
       <c r="L81" s="6"/>
       <c r="M81" s="27"/>
-      <c r="N81" s="9"/>
+      <c r="N81" s="40"/>
       <c r="O81" s="29"/>
       <c r="P81" s="9"/>
       <c r="Q81" s="29"/>
@@ -3336,9 +3353,8 @@
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-    </row>
-    <row r="82" spans="1:22" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>81</v>
       </c>
@@ -3356,7 +3372,7 @@
       <c r="K82" s="26"/>
       <c r="L82" s="7"/>
       <c r="M82" s="28"/>
-      <c r="N82" s="10"/>
+      <c r="N82" s="41"/>
       <c r="O82" s="30"/>
       <c r="P82" s="10"/>
       <c r="Q82" s="30"/>
@@ -3364,14 +3380,13 @@
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-    </row>
-    <row r="83" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C83" s="13">
-        <f t="shared" ref="C83:V83" si="0">SUM(C2:C82)</f>
+        <f t="shared" ref="C83:U83" si="0">SUM(C2:C82)</f>
         <v>6104</v>
       </c>
       <c r="D83" s="13">
@@ -3416,7 +3431,7 @@
       </c>
       <c r="N83" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9336</v>
       </c>
       <c r="O83" s="33">
         <f t="shared" si="0"/>
@@ -3424,7 +3439,7 @@
       </c>
       <c r="P83" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7229</v>
       </c>
       <c r="Q83" s="33">
         <f t="shared" si="0"/>
@@ -3432,21 +3447,17 @@
       </c>
       <c r="R83" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8994</v>
       </c>
       <c r="S83" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4571</v>
       </c>
       <c r="T83" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U83" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
